--- a/data/trans_camb/P16A17-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Estudios-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6230022425312568</v>
+        <v>-0.6612517869219405</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8530162032039298</v>
+        <v>-0.849068627451269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8464405265748073</v>
+        <v>-0.8929908921832024</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6842784462407645</v>
+        <v>0.748717009866234</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4396091349759384</v>
+        <v>0.5087938173767019</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3564895375901946</v>
+        <v>0.3314940886804224</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.672033185989853</v>
+        <v>-0.6742138508567798</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8637947483241214</v>
+        <v>-0.8582356992762324</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8261052231388359</v>
+        <v>-0.8534993537251695</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.900184277549432</v>
+        <v>1.821589223587645</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.43876108935245</v>
+        <v>1.528613970962479</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.296667620511865</v>
+        <v>1.26707749515386</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8786058262061278</v>
+        <v>-0.858259424176115</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8328660217956032</v>
+        <v>-0.7692378454850813</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8122325006809203</v>
+        <v>-0.8244338489463185</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1658389725445743</v>
+        <v>0.1524419484988206</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2475576596620562</v>
+        <v>0.2722505589032482</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.181292541048074</v>
+        <v>0.1509948966637375</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8075150643311136</v>
+        <v>-0.7864917697641157</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7385124459393029</v>
+        <v>-0.7262909847880512</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7113400855572029</v>
+        <v>-0.7309440458382166</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6191283966597706</v>
+        <v>0.4668385646587817</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6267280835178292</v>
+        <v>0.6672370956075364</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4835271302075365</v>
+        <v>0.3617740679661794</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>-0.05779101861032188</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.1278731583041027</v>
+        <v>-0.1278731583041028</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6883136290021088</v>
+        <v>-0.650366531199208</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.153879357423436</v>
+        <v>-1.151203916196353</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.210153206935398</v>
+        <v>-1.201801059964132</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.336453439662145</v>
+        <v>2.272193526122371</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9783006246187612</v>
+        <v>0.9299918233846476</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5342746209504378</v>
+        <v>0.5514940410089251</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>-0.08661057633395924</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1916416807435167</v>
+        <v>-0.1916416807435169</v>
       </c>
     </row>
     <row r="20">
@@ -863,10 +863,12 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr"/>
+      <c r="C20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.8852385180647731</v>
+        <v>-0.8913436270675258</v>
       </c>
     </row>
     <row r="21">
@@ -879,7 +881,7 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>3.048642270030821</v>
+        <v>2.82816154713106</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +902,7 @@
         <v>-0.2011316819972304</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.2231477539573203</v>
+        <v>-0.2231477539573202</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +913,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4929675954786364</v>
+        <v>-0.4743250509362888</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5969854555020614</v>
+        <v>-0.609569361134586</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5550872441564884</v>
+        <v>-0.5552129044725037</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +930,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3678845088898348</v>
+        <v>0.3253218265839113</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1836559865034109</v>
+        <v>0.1805927469003054</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09596257050241377</v>
+        <v>0.1008665813015847</v>
       </c>
     </row>
     <row r="25">
@@ -951,7 +953,7 @@
         <v>-0.2819982616142006</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3128660690061957</v>
+        <v>-0.3128660690061956</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +964,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5439748637263334</v>
+        <v>-0.5311694133723762</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6297721409928411</v>
+        <v>-0.6288465626297594</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6051048979498919</v>
+        <v>-0.6094141601124137</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +981,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7281264721067838</v>
+        <v>0.6587572581401642</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4164050404082907</v>
+        <v>0.4227324922272234</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1912085104997189</v>
+        <v>0.2072371110710574</v>
       </c>
     </row>
     <row r="28">
